--- a/Game Design Document/ToDoList.xlsx
+++ b/Game Design Document/ToDoList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOHEM\Desktop\programe\GrabThePlayer\Game Design Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOHEM\Desktop\programe\grabThePlayerOnline\Game Design Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7C57A6-14A4-4AAC-9731-D69C0B31D058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0507DF54-4CD2-40AD-A1F8-EFE7A4822239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27690" yWindow="1020" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Titre</t>
   </si>
@@ -42,18 +42,6 @@
     <t xml:space="preserve">Grab : si il touche un ennmis, il inflige des dégats avance de 400px et revient si rien est toucher. Si il touche un joueur il repars en arriere est revient a son joueur
 Chaine : se repete et relie le joueur au Grab
 </t>
-  </si>
-  <si>
-    <t>Dégats cut</t>
-  </si>
-  <si>
-    <t>Energie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se regenrer toutes les 2s, -50% grab, -20% cut. </t>
-  </si>
-  <si>
-    <t>Inflige 50% de degats au joueur toucher</t>
   </si>
   <si>
     <t>Menu</t>
@@ -397,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,10 +423,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>7</v>
@@ -446,10 +434,10 @@
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>6</v>
@@ -457,40 +445,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C7">
-    <sortCondition descending="1" ref="C7"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C5">
+    <sortCondition descending="1" ref="C5"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
